--- a/data/Emotional-Vocab-Neg.xlsx
+++ b/data/Emotional-Vocab-Neg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/PycharmProjects/WiseNLU-user/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B96A47F-C64B-464E-9DED-BF4A1EF0914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0899C865-6AB4-5047-969D-2B5B0BF0FFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="22160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="부정정서" sheetId="1" r:id="rId1"/>
@@ -2076,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B430"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
